--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,12 +517,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>45294</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M2" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -575,12 +575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,7 +603,7 @@
         <v>45294</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M3" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -661,7 +661,7 @@
         <v>45294</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M4" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>45294</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -749,12 +749,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -777,7 +777,7 @@
         <v>45294</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,12 +807,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -835,7 +835,7 @@
         <v>45294</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -860,12 +860,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -880,11 +880,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>45292</v>
@@ -893,21 +893,21 @@
         <v>45294</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.965</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>45292</v>
@@ -951,7 +951,7 @@
         <v>45294</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -976,12 +976,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1009,7 +1009,7 @@
         <v>45294</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>45292</v>
@@ -1067,7 +1067,7 @@
         <v>45295</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,12 +1092,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1112,24 +1112,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1139,11 +1139,11 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000024</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>45293</v>
@@ -1241,7 +1241,7 @@
         <v>45295</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1365,13 +1365,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9575</v>
+        <v>0.9675</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1382,12 +1382,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000025</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9575</v>
+        <v>0.95</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000025</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1503,12 +1503,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000026</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1644,10 +1644,10 @@
         <v>45293</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9625</v>
+        <v>0.95</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000020</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1702,10 +1702,10 @@
         <v>45293</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000021</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000026</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1818,10 +1818,10 @@
         <v>45293</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000022</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000027</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1876,10 +1876,10 @@
         <v>45293</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1904,12 +1904,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000010</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000015</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1937,7 +1937,7 @@
         <v>45295</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -1962,17 +1962,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000010</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1982,38 +1982,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I27" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.65</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.65</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.65</v>
+        <v>0.9675</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000011</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2053,7 +2053,7 @@
         <v>45296</v>
       </c>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000015</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>45294</v>
@@ -2111,7 +2111,7 @@
         <v>45296</v>
       </c>
       <c r="I29" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2136,17 +2136,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000027</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000058</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2160,16 +2160,16 @@
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="I30" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2177,17 +2177,17 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.996</v>
+        <v>0.412</v>
       </c>
       <c r="L30" t="n">
-        <v>0.996</v>
+        <v>0.412</v>
       </c>
       <c r="M30" t="n">
-        <v>0.95</v>
+        <v>0.405</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000059</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000059</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>45296</v>
@@ -2227,7 +2227,7 @@
         <v>45298</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2235,13 +2235,13 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L31" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M31" t="n">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000060</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000060</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>45296</v>
@@ -2285,7 +2285,7 @@
         <v>45298</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2293,13 +2293,13 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L32" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M32" t="n">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2315,12 +2315,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000061</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45299</v>
+        <v>45293</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>45296</v>
@@ -2343,7 +2343,7 @@
         <v>45298</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="L33" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="M33" t="n">
-        <v>0.42</v>
+        <v>0.405</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2368,17 +2368,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000027</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000061</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>45296</v>
@@ -2401,21 +2401,21 @@
         <v>45298</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.424</v>
+        <v>0.5</v>
       </c>
       <c r="L34" t="n">
-        <v>0.424</v>
+        <v>0.5</v>
       </c>
       <c r="M34" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000062</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000062</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>45296</v>
@@ -2459,7 +2459,7 @@
         <v>45298</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000063</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000063</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45296</v>
@@ -2517,7 +2517,7 @@
         <v>45298</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M36" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2542,17 +2542,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000064</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000065</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2562,38 +2562,38 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H37" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6</v>
+        <v>0.985</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000066</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000069</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>45299</v>
       </c>
       <c r="I38" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8475</v>
+        <v>0.985</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000073</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000066</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>45297</v>
@@ -2691,7 +2691,7 @@
         <v>45299</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2699,13 +2699,13 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8475</v>
+        <v>0.985</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000067</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000070</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2749,7 +2749,7 @@
         <v>45299</v>
       </c>
       <c r="I40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2757,13 +2757,13 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8475</v>
+        <v>0.985</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000074</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000067</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>45297</v>
@@ -2807,7 +2807,7 @@
         <v>45299</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2815,13 +2815,13 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8475</v>
+        <v>0.985</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000068</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000071</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2865,7 +2865,7 @@
         <v>45299</v>
       </c>
       <c r="I42" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2873,13 +2873,13 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8475</v>
+        <v>0.985</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -2890,17 +2890,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000075</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000072</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2910,11 +2910,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>45297</v>
@@ -2923,21 +2923,21 @@
         <v>45299</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0.852</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8475</v>
+        <v>1</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000069</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000073</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>45297</v>
@@ -2981,7 +2981,7 @@
         <v>45299</v>
       </c>
       <c r="I44" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000070</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000074</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>45297</v>
@@ -3039,7 +3039,7 @@
         <v>45299</v>
       </c>
       <c r="I45" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3064,17 +3064,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000071</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000076</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3084,38 +3084,38 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H46" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000077</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000080</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3155,7 +3155,7 @@
         <v>45300</v>
       </c>
       <c r="I47" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3163,13 +3163,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3185,12 +3185,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000084</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000071</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>45298</v>
@@ -3213,7 +3213,7 @@
         <v>45300</v>
       </c>
       <c r="I48" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3243,12 +3243,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000078</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000077</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3271,7 +3271,7 @@
         <v>45300</v>
       </c>
       <c r="I49" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000085</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000081</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3354,12 +3354,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000079</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000081</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>45298</v>
@@ -3387,7 +3387,7 @@
         <v>45300</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3395,13 +3395,13 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="M51" t="n">
-        <v>0.9725</v>
+        <v>0.5225</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3412,12 +3412,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000086</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000078</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3445,7 +3445,7 @@
         <v>45300</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3453,13 +3453,13 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9725</v>
+        <v>0.5225</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000079</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000082</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3503,7 +3503,7 @@
         <v>45300</v>
       </c>
       <c r="I53" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="L53" t="n">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="M53" t="n">
-        <v>0.445</v>
+        <v>0.5225</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3528,17 +3528,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000086</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000083</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>45298</v>
@@ -3561,21 +3561,21 @@
         <v>45300</v>
       </c>
       <c r="I54" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0.458</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0.458</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0.445</v>
+        <v>1</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000080</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000074</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3610,16 +3610,16 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="I55" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000071</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000084</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3674,10 +3674,10 @@
         <v>45298</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="I56" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3702,12 +3702,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000081</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000084</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3735,7 +3735,7 @@
         <v>45300</v>
       </c>
       <c r="I57" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3743,13 +3743,13 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000081</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000085</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3784,16 +3784,16 @@
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="I58" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3801,73 +3801,15 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="L58" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="M58" t="n">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="N58" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000082</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="I59" t="n">
-        <v>27</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N59" t="inlineStr">
         <is>
           <t>2024-01-07</t>
         </is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>45294</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -661,7 +661,7 @@
         <v>45294</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>45294</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M5" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M6" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -835,7 +835,7 @@
         <v>45294</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M7" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -860,17 +860,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -880,11 +880,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>45292</v>
@@ -893,21 +893,21 @@
         <v>45294</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>45292</v>
@@ -951,7 +951,7 @@
         <v>45294</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1009,7 +1009,7 @@
         <v>45294</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>45292</v>
@@ -1067,7 +1067,7 @@
         <v>45295</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,17 +1092,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1112,38 +1112,38 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="I12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9425</v>
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000009</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>45293</v>
@@ -1183,7 +1183,7 @@
         <v>45295</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1241,7 +1241,7 @@
         <v>45295</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>0.996</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9425</v>
+        <v>0.9575</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1324,17 +1324,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>45293</v>
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1382,12 +1382,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000010</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>45293</v>
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>0.9940000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9675</v>
+        <v>0.9575</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1498,17 +1498,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>45293</v>
@@ -1531,21 +1531,21 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000006</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1576,11 +1576,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>45293</v>
@@ -1589,21 +1589,21 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1614,17 +1614,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-01|net demand for safety|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1634,34 +1634,34 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.2</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2</v>
+        <v>0.9575</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1672,17 +1672,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000015</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1692,96 +1692,618 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="I22" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="I23" t="n">
+        <v>41</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>DC_001</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="G23" s="2" t="n">
+      <c r="F26" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H26" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000019</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I28" t="n">
         <v>40</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>LARGE</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="K28" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000027</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -517,7 +517,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000003</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1183,7 +1183,7 @@
         <v>45295</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000011</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1647,7 +1647,7 @@
         <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1672,17 +1672,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>45293</v>
@@ -1705,21 +1705,21 @@
         <v>45296</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1730,17 +1730,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>45293</v>
@@ -1763,21 +1763,21 @@
         <v>45295</v>
       </c>
       <c r="I23" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.9575</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>45293</v>
@@ -1821,7 +1821,7 @@
         <v>45295</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1846,12 +1846,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>45293</v>
@@ -1879,7 +1879,7 @@
         <v>45296</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1904,17 +1904,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1924,55 +1924,55 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000026</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1982,38 +1982,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.992</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>0.992</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M27" t="n">
-        <v>0.93</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000019</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2053,7 +2053,7 @@
         <v>45296</v>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000027</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000030</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2111,7 +2111,7 @@
         <v>45296</v>
       </c>
       <c r="I29" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000028</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000031</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2169,7 +2169,7 @@
         <v>45296</v>
       </c>
       <c r="I30" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M30" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2227,7 +2227,7 @@
         <v>45296</v>
       </c>
       <c r="I31" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2235,75 +2235,17 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>2024-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="G32" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="I32" t="n">
-        <v>24</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>2024-01-06</t>
         </is>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>45294</v>
       </c>
       <c r="I2" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000015</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -661,7 +661,7 @@
         <v>45294</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>45294</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000016</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000011</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -835,7 +835,7 @@
         <v>45294</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -860,17 +860,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -880,11 +880,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>45292</v>
@@ -893,21 +893,21 @@
         <v>45294</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>45292</v>
@@ -951,7 +951,7 @@
         <v>45294</v>
       </c>
       <c r="I9" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -976,12 +976,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1009,7 +1009,7 @@
         <v>45294</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>45292</v>
@@ -1067,7 +1067,7 @@
         <v>45295</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,17 +1092,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1112,24 +1112,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45294</v>
-      </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1139,11 +1139,11 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>45293</v>
@@ -1183,7 +1183,7 @@
         <v>45295</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000017</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1241,7 +1241,7 @@
         <v>45295</v>
       </c>
       <c r="I14" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1365,13 +1365,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9575</v>
+        <v>0.96</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1382,17 +1382,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000018</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000013</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1597,13 +1597,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000019</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I21" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9575</v>
+        <v>0.955</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1672,17 +1672,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1692,34 +1692,34 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1730,17 +1730,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>45293</v>
@@ -1763,21 +1763,21 @@
         <v>45295</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9575</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1788,12 +1788,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000006</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1812,16 +1812,16 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1846,17 +1846,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000007</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1866,384 +1866,36 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="I25" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="N25" t="inlineStr">
-        <is>
-          <t>2024-01-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000008</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="I26" t="n">
-        <v>16</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2024-01-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000008</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2024-01-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000030</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000031</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G30" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000021</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="I31" t="n">
-        <v>60</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N31" t="inlineStr">
         <is>
           <t>2024-01-03</t>
         </is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,12 +517,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>45294</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M2" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -575,12 +575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000013</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,7 +603,7 @@
         <v>45294</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M3" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -661,7 +661,7 @@
         <v>45294</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M4" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>45294</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -749,12 +749,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000014</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -777,7 +777,7 @@
         <v>45294</v>
       </c>
       <c r="I6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,12 +807,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -835,7 +835,7 @@
         <v>45294</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.98</v>
+        <v>0.965</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -860,12 +860,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000008</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -880,11 +880,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>45292</v>
@@ -893,21 +893,21 @@
         <v>45294</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.965</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>45292</v>
@@ -951,7 +951,7 @@
         <v>45294</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -976,12 +976,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000009</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1009,7 +1009,7 @@
         <v>45294</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>45292</v>
@@ -1067,7 +1067,7 @@
         <v>45295</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,17 +1092,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1112,24 +1112,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>45294</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45295</v>
       </c>
       <c r="I12" t="n">
         <v>20</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1139,11 +1139,11 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>45293</v>
@@ -1183,7 +1183,7 @@
         <v>45295</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1213,12 +1213,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000015</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>45293</v>
@@ -1241,7 +1241,7 @@
         <v>45295</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.96</v>
+        <v>0.9875</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1324,12 +1324,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>45293</v>
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.96</v>
+        <v>0.9675</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>45293</v>
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000016</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>45293</v>
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>45293</v>
@@ -1589,7 +1589,7 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.955</v>
+        <v>0.9675</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1614,17 +1614,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000030</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1634,24 +1634,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.955</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000010</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1702,10 +1702,10 @@
         <v>45293</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I22" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>45293</v>
@@ -1763,7 +1763,7 @@
         <v>45295</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000011</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000031</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1812,16 +1812,16 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I24" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1846,17 +1846,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1866,38 +1866,3054 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="I25" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000048</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000049</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000051</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I35" t="n">
+        <v>60</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000057</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I37" t="n">
+        <v>38</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000032</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I39" t="n">
+        <v>38</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000058</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I40" t="n">
+        <v>21</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I42" t="n">
+        <v>39</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I43" t="n">
+        <v>39</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000054</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000076</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000076</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I47" t="n">
+        <v>39</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000055</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000077</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-01-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I50" t="n">
+        <v>38</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000059</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I51" t="n">
+        <v>21</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000060</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000056</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000078</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000079</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="I56" t="n">
+        <v>25</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000106</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I58" t="n">
+        <v>39</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I61" t="n">
+        <v>39</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000110</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I62" t="n">
+        <v>39</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000111</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000111</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000112</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="I65" t="n">
+        <v>39</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000117</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000122</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I68" t="n">
         <v>50</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>LARGE</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2024-01-03</t>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000118</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000123</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000123</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I71" t="n">
+        <v>40</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000119</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000124</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I73" t="n">
+        <v>40</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000127</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I74" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000128</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000128</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="I76" t="n">
+        <v>40</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I77" t="n">
+        <v>20</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000012</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000013</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000016</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000017</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1183,7 +1183,7 @@
         <v>45295</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000026</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000030</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1241,7 +1241,7 @@
         <v>45295</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1324,17 +1324,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1365,13 +1365,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1382,17 +1382,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1440,17 +1440,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000027</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>45293</v>
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9675</v>
+        <v>0.9775</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9675</v>
+        <v>0.9625</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1597,13 +1597,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9675</v>
+        <v>0.9625</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1614,17 +1614,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000030</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>45293</v>
@@ -1647,21 +1647,21 @@
         <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.9625</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1672,12 +1672,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1692,11 +1692,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>45293</v>
@@ -1705,21 +1705,21 @@
         <v>45296</v>
       </c>
       <c r="I22" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.9625</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000026</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>45293</v>
@@ -1763,7 +1763,7 @@
         <v>45295</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1788,12 +1788,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000031</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1821,7 +1821,7 @@
         <v>45295</v>
       </c>
       <c r="I24" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1846,12 +1846,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000027</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>45293</v>
@@ -1879,7 +1879,7 @@
         <v>45296</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1904,17 +1904,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000048</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1924,50 +1924,50 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H26" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="I26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000053</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1982,50 +1982,50 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="I27" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000028</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2040,55 +2040,55 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000029</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2098,38 +2098,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000049</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2169,7 +2169,7 @@
         <v>45296</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M30" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>45296</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2235,13 +2235,13 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M31" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000050</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000033</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2293,13 +2293,13 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M32" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2310,12 +2310,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000050</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>45294</v>
@@ -2343,7 +2343,7 @@
         <v>45296</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M33" t="n">
-        <v>0.585</v>
+        <v>0.78</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2368,17 +2368,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000051</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000070</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2388,55 +2388,55 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="I34" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M34" t="n">
-        <v>0.585</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000071</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2446,38 +2446,38 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="I35" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6240000000000001</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M35" t="n">
-        <v>0.585</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000057</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000072</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45295</v>
@@ -2517,7 +2517,7 @@
         <v>45297</v>
       </c>
       <c r="I36" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000019</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000073</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>45295</v>
@@ -2575,7 +2575,7 @@
         <v>45297</v>
       </c>
       <c r="I37" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2600,12 +2600,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000032</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000074</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2620,24 +2620,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2647,23 +2647,23 @@
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000032</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000075</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2678,24 +2678,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G39" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H39" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I39" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2705,28 +2705,28 @@
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000058</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000083</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2736,24 +2736,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G40" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H40" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I40" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2763,23 +2763,23 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000092</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2794,24 +2794,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2821,23 +2821,23 @@
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0.9925</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000076</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2856,16 +2856,16 @@
         </is>
       </c>
       <c r="F42" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H42" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I42" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2873,34 +2873,34 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9925</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000028</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000084</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2914,16 +2914,16 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H43" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I43" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2931,29 +2931,29 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9925</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000054</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000093</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2972,16 +2972,16 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G44" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H44" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I44" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2989,34 +2989,34 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9925</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000076</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000077</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3030,16 +3030,16 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G45" s="2" t="n">
         <v>45296</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>45295</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3047,29 +3047,29 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9925</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000076</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000085</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3088,16 +3088,16 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H46" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I46" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3105,29 +3105,29 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9675</v>
+        <v>0.9925</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000029</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000094</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="I47" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3163,29 +3163,29 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9675</v>
+        <v>0.9925</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000055</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000094</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="I48" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3221,29 +3221,29 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.992</v>
+        <v>0.44</v>
       </c>
       <c r="L48" t="n">
-        <v>0.992</v>
+        <v>0.44</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9675</v>
+        <v>0.4375</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000077</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000086</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3262,16 +3262,16 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I49" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3279,29 +3279,29 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.992</v>
+        <v>0.44</v>
       </c>
       <c r="L49" t="n">
-        <v>0.992</v>
+        <v>0.44</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9675</v>
+        <v>0.4375</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000033</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000095</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3316,34 +3316,34 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I50" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000059</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000088</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3387,7 +3387,7 @@
         <v>45298</v>
       </c>
       <c r="I51" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000060</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000089</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3445,7 +3445,7 @@
         <v>45298</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3470,12 +3470,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000060</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000090</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>45296</v>
@@ -3503,7 +3503,7 @@
         <v>45298</v>
       </c>
       <c r="I53" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3528,12 +3528,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000056</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000090</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>45296</v>
@@ -3561,21 +3561,21 @@
         <v>45298</v>
       </c>
       <c r="I54" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0.61</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="L54" t="n">
-        <v>0.61</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="M54" t="n">
-        <v>0.585</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3586,17 +3586,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000078</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3606,11 +3606,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>45296</v>
@@ -3619,21 +3619,21 @@
         <v>45298</v>
       </c>
       <c r="I55" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0.61</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="L55" t="n">
-        <v>0.61</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="M55" t="n">
-        <v>0.585</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3644,12 +3644,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000079</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3668,16 +3668,16 @@
         </is>
       </c>
       <c r="F56" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H56" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="I56" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3685,17 +3685,17 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0.61</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L56" t="n">
-        <v>0.61</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M56" t="n">
-        <v>0.585</v>
+        <v>0.9675</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
         <v>45299</v>
       </c>
       <c r="I57" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3743,13 +3743,13 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -3765,12 +3765,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3793,7 +3793,7 @@
         <v>45299</v>
       </c>
       <c r="I58" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3801,13 +3801,13 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>45297</v>
@@ -3851,7 +3851,7 @@
         <v>45299</v>
       </c>
       <c r="I59" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3859,13 +3859,13 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -3876,17 +3876,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000099</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3909,7 +3909,7 @@
         <v>45299</v>
       </c>
       <c r="I60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3917,13 +3917,13 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9675</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -3934,12 +3934,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>45297</v>
@@ -3967,7 +3967,7 @@
         <v>45299</v>
       </c>
       <c r="I61" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9675</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -3992,17 +3992,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000110</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000100</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4012,11 +4012,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>45297</v>
@@ -4025,21 +4025,21 @@
         <v>45299</v>
       </c>
       <c r="I62" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0.9675</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4050,17 +4050,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000111</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000100</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4070,11 +4070,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>45297</v>
@@ -4083,21 +4083,21 @@
         <v>45299</v>
       </c>
       <c r="I63" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0.2425</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4108,12 +4108,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000111</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>45297</v>
@@ -4141,21 +4141,21 @@
         <v>45299</v>
       </c>
       <c r="I64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0.2425</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4166,12 +4166,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000112</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000102</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4190,16 +4190,16 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I65" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4224,12 +4224,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000103</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4282,17 +4282,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000117</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4302,24 +4302,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H67" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G67" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>45300</v>
-      </c>
       <c r="I67" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -4329,11 +4329,11 @@
         <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
@@ -4345,12 +4345,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000122</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000111</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4373,7 +4373,7 @@
         <v>45300</v>
       </c>
       <c r="I68" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M68" t="n">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -4403,12 +4403,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000118</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000120</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>45298</v>
@@ -4431,7 +4431,7 @@
         <v>45300</v>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000123</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000112</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4489,7 +4489,7 @@
         <v>45300</v>
       </c>
       <c r="I70" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4497,13 +4497,13 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -4514,12 +4514,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000123</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000121</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4547,7 +4547,7 @@
         <v>45300</v>
       </c>
       <c r="I71" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -4555,13 +4555,13 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M71" t="n">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -4572,12 +4572,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000119</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000113</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4605,7 +4605,7 @@
         <v>45300</v>
       </c>
       <c r="I72" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -4613,13 +4613,13 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M72" t="n">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -4630,12 +4630,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000124</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000122</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4663,7 +4663,7 @@
         <v>45300</v>
       </c>
       <c r="I73" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M73" t="n">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -4688,17 +4688,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000127</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000114</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4708,11 +4708,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>45298</v>
@@ -4721,21 +4721,21 @@
         <v>45300</v>
       </c>
       <c r="I74" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000128</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000123</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4766,11 +4766,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>45298</v>
@@ -4779,21 +4779,21 @@
         <v>45300</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -4804,12 +4804,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000128</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000116</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="I76" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4862,12 +4862,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4886,32 +4886,380 @@
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="H77" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000104</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="I77" t="n">
-        <v>20</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="G78" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I78" t="n">
+        <v>19</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="K77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr">
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000117</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I79" t="n">
+        <v>17</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000105</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000105</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000118</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-11|net demand for forecast|000119</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I83" t="n">
+        <v>17</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N83" t="inlineStr">
         <is>
           <t>2024-01-07</t>
         </is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000004</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000016</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,7 +603,7 @@
         <v>45294</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -661,7 +661,7 @@
         <v>45294</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240101-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>45294</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000017</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -777,7 +777,7 @@
         <v>45294</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000006</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -893,7 +893,7 @@
         <v>45294</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.965</v>
+        <v>0.96</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -918,17 +918,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000012</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -938,11 +938,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>45292</v>
@@ -951,11 +951,11 @@
         <v>45294</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -976,12 +976,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240101-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -996,11 +996,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>45292</v>
@@ -1009,11 +1009,11 @@
         <v>45294</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1034,12 +1034,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000013</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000018</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>45292</v>
@@ -1067,7 +1067,7 @@
         <v>45295</v>
       </c>
       <c r="I11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1092,12 +1092,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>45292</v>
@@ -1125,7 +1125,7 @@
         <v>45294</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1150,17 +1150,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000021</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1170,50 +1170,50 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="I13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240101-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000030</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1228,38 +1228,38 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000018</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000027</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>45293</v>
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000022</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000043</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>45293</v>
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1365,13 +1365,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000031</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000028</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>45293</v>
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9775</v>
+        <v>0.97</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1498,17 +1498,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000007</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1556,17 +1556,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000019</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000029</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1597,13 +1597,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1614,17 +1614,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1647,7 +1647,7 @@
         <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.992</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9625</v>
+        <v>0.97</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1702,10 +1702,10 @@
         <v>45293</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="L22" t="n">
-        <v>0.992</v>
+        <v>0.88</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9625</v>
+        <v>0.84</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1730,17 +1730,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000026</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1750,11 +1750,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>45293</v>
@@ -1763,21 +1763,21 @@
         <v>45295</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1788,12 +1788,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000014</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000046</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1808,34 +1808,34 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1846,17 +1846,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000027</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000007</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1866,34 +1866,34 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000015</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000039</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>45293</v>
@@ -1937,7 +1937,7 @@
         <v>45295</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1962,12 +1962,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000015</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1986,16 +1986,16 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2020,12 +2020,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000028</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000040</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>45293</v>
@@ -2053,7 +2053,7 @@
         <v>45295</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000029</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000040</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>45293</v>
@@ -2111,7 +2111,7 @@
         <v>45295</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2136,12 +2136,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2156,55 +2156,55 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2214,50 +2214,50 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000033</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000069</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2276,16 +2276,16 @@
         </is>
       </c>
       <c r="F32" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H32" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2293,34 +2293,34 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="L32" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="M32" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000070</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2334,16 +2334,16 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="I33" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2351,29 +2351,29 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="L33" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="M33" t="n">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000070</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000095</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
@@ -2401,21 +2401,21 @@
         <v>45297</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2426,12 +2426,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000071</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000071</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
@@ -2459,21 +2459,21 @@
         <v>45297</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2484,12 +2484,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000072</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000096</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2504,11 +2504,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45295</v>
@@ -2517,21 +2517,21 @@
         <v>45297</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2542,12 +2542,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000073</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000072</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2562,11 +2562,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>45295</v>
@@ -2575,21 +2575,21 @@
         <v>45297</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -2600,12 +2600,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000074</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45296</v>
+        <v>45298</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2641,29 +2641,29 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="M38" t="n">
-        <v>0.9925</v>
+        <v>0.84</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000075</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H39" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2699,34 +2699,34 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9925</v>
+        <v>0.84</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000083</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000065</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2736,24 +2736,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="H40" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>45298</v>
-      </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -2763,23 +2763,23 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000092</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2794,24 +2794,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="I41" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2821,23 +2821,23 @@
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000076</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000066</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2852,24 +2852,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2879,28 +2879,28 @@
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000084</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000066</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2910,24 +2910,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2937,23 +2937,23 @@
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000093</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000091</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2968,24 +2968,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="I44" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2995,23 +2995,23 @@
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000077</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3026,24 +3026,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K45" t="n">
@@ -3053,11 +3053,11 @@
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000085</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000100</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>45296</v>
@@ -3097,7 +3097,7 @@
         <v>45298</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000094</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000116</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="I47" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3163,13 +3163,13 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9925</v>
+        <v>0.93</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3180,17 +3180,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000094</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000101</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>45296</v>
@@ -3213,7 +3213,7 @@
         <v>45298</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.44</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L48" t="n">
-        <v>0.44</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>0.4375</v>
+        <v>0.93</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3238,17 +3238,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000086</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000117</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>45296</v>
@@ -3271,7 +3271,7 @@
         <v>45298</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.44</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>0.44</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M49" t="n">
-        <v>0.4375</v>
+        <v>0.93</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3296,17 +3296,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000095</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000102</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="I50" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3337,13 +3337,13 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.44</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>0.44</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4375</v>
+        <v>0.93</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3354,12 +3354,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000088</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000118</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3374,11 +3374,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>45296</v>
@@ -3387,21 +3387,21 @@
         <v>45298</v>
       </c>
       <c r="I51" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3412,17 +3412,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000089</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000103</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3432,11 +3432,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>45296</v>
@@ -3445,21 +3445,21 @@
         <v>45298</v>
       </c>
       <c r="I52" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3470,12 +3470,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000090</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000119</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3490,11 +3490,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>45296</v>
@@ -3503,21 +3503,21 @@
         <v>45298</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3528,12 +3528,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000090</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>45296</v>
@@ -3561,7 +3561,7 @@
         <v>45298</v>
       </c>
       <c r="I54" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0.4333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -3586,12 +3586,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000067</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3610,16 +3610,16 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3627,13 +3627,13 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0.4333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0.4333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -3644,17 +3644,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000092</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3664,50 +3664,50 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H56" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="I56" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000106</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000112</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3722,55 +3722,55 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H57" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="I57" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000112</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45299</v>
+        <v>45297</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>45299</v>
@@ -3797,33 +3797,33 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000107</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000068</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3838,55 +3838,55 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="I59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000099</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000093</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3896,50 +3896,50 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="I60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000108</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3954,38 +3954,38 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="I61" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9940000000000001</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000100</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000122</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>45297</v>
@@ -4025,7 +4025,7 @@
         <v>45299</v>
       </c>
       <c r="I62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9940000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M62" t="n">
-        <v>0.9675</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4050,17 +4050,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000100</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000138</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>45297</v>
@@ -4083,7 +4083,7 @@
         <v>45299</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4091,13 +4091,13 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0.246</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>0.246</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M63" t="n">
-        <v>0.2425</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4108,17 +4108,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000109</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000123</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>45297</v>
@@ -4141,7 +4141,7 @@
         <v>45299</v>
       </c>
       <c r="I64" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4149,13 +4149,13 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0.246</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>0.246</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2425</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4166,12 +4166,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000102</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000139</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4186,34 +4186,34 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="I65" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -4224,17 +4224,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000103</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000124</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4244,11 +4244,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>45297</v>
@@ -4257,21 +4257,21 @@
         <v>45299</v>
       </c>
       <c r="I66" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -4282,12 +4282,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000140</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">
@@ -4315,21 +4315,21 @@
         <v>45299</v>
       </c>
       <c r="I67" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -4340,12 +4340,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000111</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000125</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H68" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G68" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>45300</v>
-      </c>
       <c r="I68" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4381,29 +4381,29 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0.9960000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9960000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M68" t="n">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000120</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000141</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4422,16 +4422,16 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="H69" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>45300</v>
-      </c>
       <c r="I69" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4439,34 +4439,34 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0.9960000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9960000000000001</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000112</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4476,50 +4476,50 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000121</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000134</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4534,55 +4534,55 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45300</v>
+        <v>45298</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="I71" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000113</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000094</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4592,50 +4592,50 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="I72" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000122</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000094</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4650,55 +4650,55 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45301</v>
+        <v>45299</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="I73" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000114</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000114</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4708,50 +4708,50 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45302</v>
+        <v>45299</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="I74" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000123</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4766,55 +4766,55 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45302</v>
+        <v>45299</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="I75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9960000000000001</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2024-01-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000116</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000144</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
@@ -4837,21 +4837,21 @@
         <v>45300</v>
       </c>
       <c r="I76" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -4862,12 +4862,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000160</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4882,34 +4882,34 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -4920,17 +4920,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000104</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000145</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
@@ -4953,21 +4953,21 @@
         <v>45300</v>
       </c>
       <c r="I78" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -4978,12 +4978,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000117</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000161</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
@@ -5011,21 +5011,21 @@
         <v>45300</v>
       </c>
       <c r="I79" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -5036,17 +5036,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000105</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000146</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F80" s="2" t="n">
@@ -5066,24 +5066,24 @@
         <v>45298</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -5094,12 +5094,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000105</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000162</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
@@ -5127,21 +5127,21 @@
         <v>45300</v>
       </c>
       <c r="I81" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L81" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -5152,17 +5152,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000118</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000147</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5172,11 +5172,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>45298</v>
@@ -5185,21 +5185,21 @@
         <v>45300</v>
       </c>
       <c r="I82" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M82" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -5210,12 +5210,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-11|net demand for forecast|000119</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000163</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
@@ -5243,23 +5243,313 @@
         <v>45300</v>
       </c>
       <c r="I83" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>LARGE</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0.7759999999999999</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.7759999999999999</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="K83" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="N83" t="inlineStr">
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000156</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000156</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000115</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="I87" t="n">
+        <v>39</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2024-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000136</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr">
         <is>
           <t>2024-01-07</t>
         </is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_delivery_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,12 +517,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000003</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -545,7 +545,7 @@
         <v>45294</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -575,12 +575,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-02|net demand for forecast|000022</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for forecast|000019</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,7 +603,7 @@
         <v>45294</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000004</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -661,7 +661,7 @@
         <v>45294</v>
       </c>
       <c r="I4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -719,7 +719,7 @@
         <v>45294</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -749,12 +749,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000023</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -777,7 +777,7 @@
         <v>45294</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,12 +807,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000005</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -835,7 +835,7 @@
         <v>45294</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -865,12 +865,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000024</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -893,7 +893,7 @@
         <v>45294</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -923,12 +923,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000006</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -951,7 +951,7 @@
         <v>45294</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -981,12 +981,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1009,7 +1009,7 @@
         <v>45294</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.96</v>
+        <v>0.9625</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000018</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-02|net demand for forecast|000010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000019</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000019</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000011</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000027</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000038</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1299,7 +1299,7 @@
         <v>45295</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-03|net demand for forecast|000043</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-03|net demand for forecast|000043</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>45295</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000028</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000039</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1415,7 +1415,7 @@
         <v>45295</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1473,7 +1473,7 @@
         <v>45295</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1498,17 +1498,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000025</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000044</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>45293</v>
@@ -1531,7 +1531,7 @@
         <v>45295</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1556,12 +1556,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000029</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1589,7 +1589,7 @@
         <v>45295</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1614,12 +1614,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000040</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1647,7 +1647,7 @@
         <v>45295</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.97</v>
+        <v>0.9675</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1677,12 +1677,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000045</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1705,7 +1705,7 @@
         <v>45295</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.84</v>
+        <v>0.9675</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1735,12 +1735,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000030</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000041</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1763,7 +1763,7 @@
         <v>45295</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.84</v>
+        <v>0.9675</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -1788,12 +1788,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000046</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000034</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1808,11 +1808,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>45293</v>
@@ -1821,21 +1821,21 @@
         <v>45296</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -1846,17 +1846,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_001-LARGE-#2</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000007</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000012</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>45293</v>
@@ -1879,21 +1879,21 @@
         <v>45295</v>
       </c>
       <c r="I25" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -1904,12 +1904,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-03|net demand for forecast|000039</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000035</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>45293</v>
@@ -1937,7 +1937,7 @@
         <v>45295</v>
       </c>
       <c r="I26" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1962,17 +1962,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000020</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000046</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1982,55 +1982,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.7125</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000040</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2040,50 +2040,50 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="I28" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.7125</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000040</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000035</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2105,13 +2105,13 @@
         <v>45295</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2129,19 +2129,19 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000021</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000013</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2163,10 +2163,10 @@
         <v>45296</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="I30" t="n">
         <v>41</v>
@@ -2187,19 +2187,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20240102-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000036</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>45296</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2245,19 +2245,19 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000069</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000036</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2272,11 +2272,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>45295</v>
@@ -2285,21 +2285,21 @@
         <v>45297</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2310,12 +2310,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000070</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000037</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2330,11 +2330,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>45295</v>
@@ -2343,21 +2343,21 @@
         <v>45297</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2368,12 +2368,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000095</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000041</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G34" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H34" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I34" t="n">
         <v>12</v>
@@ -2409,29 +2409,29 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="L34" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="M34" t="n">
-        <v>0.84</v>
+        <v>0.9825</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000071</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000089</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2453,13 +2453,13 @@
         <v>45297</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2467,34 +2467,34 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="L35" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="M35" t="n">
-        <v>0.84</v>
+        <v>0.9825</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000096</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000094</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2511,13 +2511,13 @@
         <v>45297</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2525,29 +2525,29 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="L36" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="M36" t="n">
-        <v>0.84</v>
+        <v>0.9825</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000072</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000090</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2569,13 +2569,13 @@
         <v>45298</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2583,34 +2583,34 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="L37" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="M37" t="n">
-        <v>0.84</v>
+        <v>0.9825</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000097</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000095</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2627,13 +2627,13 @@
         <v>45298</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2641,34 +2641,34 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="L38" t="n">
-        <v>0.84</v>
+        <v>0.996</v>
       </c>
       <c r="M38" t="n">
-        <v>0.84</v>
+        <v>0.9825</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000098</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000095</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2699,29 +2699,29 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.84</v>
+        <v>0.956</v>
       </c>
       <c r="L39" t="n">
-        <v>0.84</v>
+        <v>0.956</v>
       </c>
       <c r="M39" t="n">
-        <v>0.84</v>
+        <v>0.9375</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-04|net demand for forecast|000065</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000091</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2736,55 +2736,55 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000041</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000096</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2794,50 +2794,50 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>45296</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>45295</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000066</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000092</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2852,55 +2852,55 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H42" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I42" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000066</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000097</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2910,50 +2910,50 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>45295</v>
-      </c>
       <c r="H43" s="2" t="n">
-        <v>45297</v>
+        <v>45299</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0.956</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-05|net demand for forecast|000091</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000037</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2972,16 +2972,16 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="G44" s="2" t="n">
         <v>45296</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>45295</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2999,19 +2999,19 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20240104-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000085</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3033,13 +3033,13 @@
         <v>45297</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="I45" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3057,24 +3057,24 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000100</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000085</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
@@ -3094,24 +3094,24 @@
         <v>45296</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.9520000000000001</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9520000000000001</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3122,12 +3122,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000116</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000086</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>45296</v>
@@ -3155,21 +3155,21 @@
         <v>45298</v>
       </c>
       <c r="I47" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>LARGE</t>
+          <t>MEDIUM</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0.9520000000000001</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9520000000000001</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3180,17 +3180,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000101</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000110</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3207,13 +3207,13 @@
         <v>45298</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3221,34 +3221,34 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M48" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000117</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000115</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3265,13 +3265,13 @@
         <v>45298</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3279,34 +3279,34 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M49" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000102</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000111</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3323,13 +3323,13 @@
         <v>45299</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3337,34 +3337,34 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M50" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000118</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000116</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3381,13 +3381,13 @@
         <v>45299</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3395,34 +3395,34 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M51" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000103</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000112</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3439,13 +3439,13 @@
         <v>45300</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3453,34 +3453,34 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M52" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000119</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000117</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3497,13 +3497,13 @@
         <v>45300</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I53" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3511,34 +3511,34 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9520000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="M53" t="n">
-        <v>0.93</v>
+        <v>0.9825</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000042</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000117</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3548,50 +3548,50 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G54" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="H54" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0.4075</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000067</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000113</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3606,55 +3606,55 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G55" s="2" t="n">
         <v>45297</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>45296</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="I55" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0.4075</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000092</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000118</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3664,50 +3664,50 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G56" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="H56" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I56" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0.418</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0.4075</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000112</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000086</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3726,16 +3726,16 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G57" s="2" t="n">
         <v>45297</v>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="H57" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="I57" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3753,19 +3753,19 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-06|net demand for forecast|000112</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000106</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3784,16 +3784,16 @@
         </is>
       </c>
       <c r="F58" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="G58" s="2" t="n">
         <v>45297</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>45296</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3811,19 +3811,19 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000068</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000106</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3845,13 +3845,13 @@
         <v>45298</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="I59" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3869,19 +3869,19 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000093</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000087</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3900,16 +3900,16 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="I60" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3927,19 +3927,19 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20240105-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000132</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3954,50 +3954,50 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G61" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>45296</v>
-      </c>
       <c r="H61" s="2" t="n">
-        <v>45298</v>
+        <v>45300</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>LARGE</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000122</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000137</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4016,16 +4016,16 @@
         </is>
       </c>
       <c r="F62" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>45297</v>
-      </c>
       <c r="H62" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4033,29 +4033,29 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L62" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-07|net demand for forecast|000138</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000133</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4074,16 +4074,16 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="G63" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G63" s="2" t="n">
-        <v>45297</v>
-      </c>
       <c r="H63" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -4091,29 +4091,29 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000123</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000138</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4149,29 +4149,29 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000139</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000134</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4190,16 +4190,16 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I65" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4207,34 +4207,34 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.996</v>
       </c>
       <c r="M65" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000124</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000134</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H66" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="G66" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4265,34 +4265,34 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L66" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M66" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000140</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000139</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="H67" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="G67" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>45299</v>
-      </c>
       <c r="I67" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4323,34 +4323,34 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L67" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000125</t>
+          <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000135</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4381,34 +4381,34 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L68" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_001-LARGE-#1</t>
+          <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000141</t>
+          <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000140</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4422,16 +4422,16 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4439,29 +4439,29 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L69" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000113</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000087</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4480,16 +4480,16 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G70" s="2" t="n">
         <v>45298</v>
       </c>
-      <c r="G70" s="2" t="n">
-        <v>45297</v>
-      </c>
       <c r="H70" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="I70" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4507,19 +4507,19 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-07|net demand for forecast|000134</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000107</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4538,16 +4538,16 @@
         </is>
       </c>
       <c r="F71" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G71" s="2" t="n">
         <v>45298</v>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>45297</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="I71" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -4565,19 +4565,19 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#1</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000094</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000107</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4599,13 +4599,13 @@
         <v>45299</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -4623,19 +4623,19 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-07</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
+          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000094</t>
+          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000128</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4657,13 +4657,13 @@
         <v>45299</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="I73" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4680,876 +4680,6 @@
         <v>1</v>
       </c>
       <c r="N73" t="inlineStr">
-        <is>
-          <t>2024-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000114</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G74" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I74" t="n">
-        <v>31</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>2024-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>20240106-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>2024-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000144</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G76" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H76" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000160</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G77" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H77" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000145</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G78" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H78" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I78" t="n">
-        <v>8</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000161</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G79" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H79" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000146</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="G80" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H80" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000162</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="G81" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H81" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000147</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="G82" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H82" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000163</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="G83" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H83" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I83" t="n">
-        <v>13</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>LARGE</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.7759999999999999</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G84" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H84" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I84" t="n">
-        <v>28</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000156</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H85" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000156</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="G86" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H86" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000115</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G87" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H87" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="I87" t="n">
-        <v>39</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>2024-01-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000136</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>DC_002</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="n">
-        <v>45300</v>
-      </c>
-      <c r="G88" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H88" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="I88" t="n">
-        <v>20</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="K88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr">
         <is>
           <t>2024-01-07</t>
         </is>
